--- a/results/shot_chart_2022.xlsx
+++ b/results/shot_chart_2022.xlsx
@@ -486,22 +486,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E2" t="n">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F2" t="n">
-        <v>53.9</v>
+        <v>52.5</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +515,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>37.5</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>28.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="4">
@@ -535,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="5">
@@ -581,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G6" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="7">
@@ -604,19 +604,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="8">
@@ -630,16 +630,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -653,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>15.4</v>
+        <v>13.3</v>
       </c>
       <c r="G9" t="n">
-        <v>15.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="10">
@@ -699,16 +699,16 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>27.3</v>
+        <v>23.1</v>
       </c>
       <c r="G11" t="n">
-        <v>27.3</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="12">
@@ -745,16 +745,16 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>13.3</v>
+        <v>11.8</v>
       </c>
       <c r="G13" t="n">
-        <v>13.3</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="14">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,7 +861,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -870,44 +870,44 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -930,24 +930,47 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -962,7 +985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,16 +1041,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -1055,13 +1078,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1070,55 +1093,78 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>10</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1183,22 +1229,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E2" t="n">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="F2" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="G2" t="n">
-        <v>49</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="3">
@@ -1209,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>33.3</v>
+        <v>37.5</v>
       </c>
       <c r="G3" t="n">
-        <v>33.3</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="4">
@@ -1232,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="5">
@@ -1255,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1278,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>23.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1304,16 +1350,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
       <c r="G7" t="n">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="8">
@@ -1324,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="9">
@@ -1350,16 +1396,16 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>17.6</v>
+        <v>16.7</v>
       </c>
       <c r="G9" t="n">
-        <v>17.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="10">
@@ -1373,16 +1419,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>14.3</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="11">
@@ -1396,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1419,16 +1465,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="G12" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1439,19 +1485,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="G13" t="n">
         <v>41.2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>37.5</v>
       </c>
     </row>
     <row r="14">
@@ -1465,16 +1511,16 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>57.1</v>
+        <v>44.4</v>
       </c>
       <c r="G14" t="n">
-        <v>57.1</v>
+        <v>44.4</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,19 +1587,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>52.6</v>
+        <v>56</v>
       </c>
       <c r="G2" t="n">
-        <v>47.1</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="3">
@@ -1581,53 +1627,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1636,44 +1682,44 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>66.7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1682,10 +1728,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1696,10 +1742,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1708,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1719,25 +1765,48 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1804,19 +1873,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>47.7</v>
       </c>
       <c r="G2" t="n">
-        <v>47.4</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="3">
@@ -1899,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1919,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2021,19 +2090,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>78.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="3">
@@ -2093,16 +2162,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="6">
@@ -2139,16 +2208,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2159,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>36.4</v>
+        <v>41.7</v>
       </c>
       <c r="G8" t="n">
-        <v>36.4</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="9">
@@ -2208,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2373,22 +2442,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>43.8</v>
+        <v>46.5</v>
       </c>
       <c r="G2" t="n">
-        <v>33.3</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="3">
@@ -2540,7 +2609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2587,7 +2656,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -2610,24 +2679,70 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2642,7 +2757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2698,27 +2813,27 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -2727,15 +2842,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2758,47 +2873,70 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>50</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2813,7 +2951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2866,19 +3004,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>37.5</v>
+        <v>40.7</v>
       </c>
       <c r="G2" t="n">
-        <v>34.8</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="3">
@@ -3021,24 +3159,47 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3053,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3103,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3112,10 +3273,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3192,7 +3353,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -3215,13 +3376,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -3230,32 +3391,78 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>13</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/shot_chart_2022.xlsx
+++ b/results/shot_chart_2022.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Enemy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Drago" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ansen" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Ian" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Theo" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Kyle" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Tanner" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Daniel" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Tyler" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Kaden" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Rhece" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Potsdam" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Enemy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drago" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ansen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ian" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Theo" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kyle" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanner" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daniel" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tyler" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kaden" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andre" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rhece" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Potsdam" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61,6 +62,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -486,22 +488,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="E2" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F2" t="n">
-        <v>52.5</v>
+        <v>49.5</v>
       </c>
       <c r="G2" t="n">
-        <v>45.7</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +517,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>27.3</v>
       </c>
       <c r="G3" t="n">
-        <v>22.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -538,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>16.7</v>
+        <v>14.3</v>
       </c>
       <c r="G4" t="n">
-        <v>16.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5">
@@ -561,16 +563,16 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="G5" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6">
@@ -584,16 +586,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>26.3</v>
+        <v>22.7</v>
       </c>
       <c r="G6" t="n">
-        <v>26.3</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="7">
@@ -607,16 +609,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
@@ -630,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -653,16 +655,16 @@
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -676,16 +678,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="11">
@@ -693,22 +695,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>23.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -742,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>11.8</v>
+        <v>23.3</v>
       </c>
       <c r="G13" t="n">
-        <v>11.8</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="14">
@@ -768,16 +770,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
       <c r="G14" t="n">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
@@ -786,6 +788,302 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fts</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>att</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>att with fts</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg with ft</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>avg without ft</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fts</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>att</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>att with fts</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>avg with ft</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>avg without ft</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -844,30 +1142,30 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -876,15 +1174,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -893,21 +1191,21 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -916,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -930,13 +1228,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -945,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -979,201 +1277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>fts</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>att</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>att with fts</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>avg with ft</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg without ft</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1229,22 +1333,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E2" t="n">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="F2" t="n">
-        <v>54.2</v>
+        <v>54</v>
       </c>
       <c r="G2" t="n">
-        <v>49.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1255,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>37.5</v>
+        <v>42.1</v>
       </c>
       <c r="G3" t="n">
-        <v>37.5</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="4">
@@ -1278,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>28.6</v>
+        <v>33.3</v>
       </c>
       <c r="G4" t="n">
-        <v>28.6</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="5">
@@ -1304,16 +1408,16 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>22.7</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="6">
@@ -1324,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>27.5</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="7">
@@ -1370,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>29.6</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>29.6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1393,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>16.7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1416,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>14.3</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>14.3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1442,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1465,16 +1569,16 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1485,19 +1589,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>44.4</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>41.2</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="14">
@@ -1587,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="G2" t="n">
-        <v>52.2</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="3">
@@ -1633,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="5">
@@ -1659,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1705,16 +1809,16 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="8">
@@ -1771,19 +1875,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="G10" t="n">
         <v>50</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1870,22 +1974,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>47.7</v>
+        <v>46.2</v>
       </c>
       <c r="G2" t="n">
-        <v>45.2</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="3">
@@ -1896,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1922,16 +2026,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>16.7</v>
+        <v>14.3</v>
       </c>
       <c r="G4" t="n">
-        <v>16.7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5">
@@ -1988,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -2087,22 +2191,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>79.2</v>
+        <v>78.8</v>
       </c>
       <c r="G2" t="n">
-        <v>76.2</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -2113,19 +2217,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -2139,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2228,19 +2332,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>41.7</v>
+        <v>42.9</v>
       </c>
       <c r="G8" t="n">
-        <v>41.7</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="9">
@@ -2251,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>16.7</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>16.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -2300,10 +2404,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2323,16 +2427,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="13">
@@ -2343,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>42.9</v>
+        <v>44.4</v>
       </c>
       <c r="G13" t="n">
-        <v>42.9</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="14">
@@ -2442,22 +2546,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>46.5</v>
+        <v>47.9</v>
       </c>
       <c r="G2" t="n">
-        <v>37.8</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3">
@@ -3214,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3316,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3336,19 +3440,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>36.4</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="6">
@@ -3422,7 +3526,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3445,24 +3549,47 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
     </row>
